--- a/deployment/v3/mosip/kernel/masterdata/xlsx/dynamic_field.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/xlsx/dynamic_field.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$I$63</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$I$67</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="80">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -312,6 +312,21 @@
 		"code": "NFR",
 		"value": "Non-Foreigner"
 	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preferredLang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user preferred Language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"value":"English","code":"eng"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"value":"français","code":"fra"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Langue préférée de l'utilisateur</t>
   </si>
   <si>
     <t xml:space="preserve">fra</t>
@@ -576,15 +591,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B60" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L64" activeCellId="0" sqref="L64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G65" activeCellId="0" sqref="G65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1312,7 +1331,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="66.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>10025</v>
       </c>
@@ -1341,7 +1360,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="66.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>10026</v>
       </c>
@@ -1515,125 +1534,125 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
-        <v>10063</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="0" t="s">
+    <row r="33" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="n">
+        <v>10310</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="n">
+        <v>10313</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G33" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I33" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
-        <v>10064</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="0" t="s">
+      <c r="C34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="n">
+        <v>10317</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G34" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I34" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
-        <v>10065</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="0" t="s">
+      <c r="C35" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G35" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="n">
+        <v>10319</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G35" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I35" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
-        <v>10066</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="0" t="s">
+      <c r="C36" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="G36" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H36" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I36" s="0" t="s">
+      <c r="H36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
-        <v>10067</v>
+        <v>10063</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>9</v>
@@ -1645,10 +1664,10 @@
         <v>11</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G37" s="3" t="b">
         <v>1</v>
@@ -1662,7 +1681,7 @@
     </row>
     <row r="38" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
-        <v>10068</v>
+        <v>10064</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>9</v>
@@ -1674,10 +1693,10 @@
         <v>11</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G38" s="3" t="b">
         <v>1</v>
@@ -1691,7 +1710,7 @@
     </row>
     <row r="39" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
-        <v>10069</v>
+        <v>10065</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>9</v>
@@ -1703,10 +1722,10 @@
         <v>11</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G39" s="3" t="b">
         <v>1</v>
@@ -1720,7 +1739,7 @@
     </row>
     <row r="40" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
-        <v>10070</v>
+        <v>10066</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>9</v>
@@ -1732,10 +1751,10 @@
         <v>11</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G40" s="3" t="b">
         <v>1</v>
@@ -1749,7 +1768,7 @@
     </row>
     <row r="41" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
-        <v>10071</v>
+        <v>10067</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>9</v>
@@ -1761,10 +1780,10 @@
         <v>11</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G41" s="3" t="b">
         <v>1</v>
@@ -1778,7 +1797,7 @@
     </row>
     <row r="42" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
-        <v>10072</v>
+        <v>10068</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>9</v>
@@ -1790,10 +1809,10 @@
         <v>11</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G42" s="3" t="b">
         <v>1</v>
@@ -1807,7 +1826,7 @@
     </row>
     <row r="43" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
-        <v>10073</v>
+        <v>10069</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>9</v>
@@ -1819,10 +1838,10 @@
         <v>11</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G43" s="3" t="b">
         <v>1</v>
@@ -1836,7 +1855,7 @@
     </row>
     <row r="44" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
-        <v>10074</v>
+        <v>10070</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>9</v>
@@ -1848,10 +1867,10 @@
         <v>11</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G44" s="3" t="b">
         <v>1</v>
@@ -1865,7 +1884,7 @@
     </row>
     <row r="45" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
-        <v>10075</v>
+        <v>10071</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>9</v>
@@ -1877,10 +1896,10 @@
         <v>11</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G45" s="3" t="b">
         <v>1</v>
@@ -1894,7 +1913,7 @@
     </row>
     <row r="46" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
-        <v>10076</v>
+        <v>10072</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>9</v>
@@ -1906,10 +1925,10 @@
         <v>11</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G46" s="3" t="b">
         <v>1</v>
@@ -1923,22 +1942,22 @@
     </row>
     <row r="47" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
-        <v>10077</v>
+        <v>10073</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G47" s="3" t="b">
         <v>1</v>
@@ -1952,22 +1971,22 @@
     </row>
     <row r="48" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
-        <v>10078</v>
+        <v>10074</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G48" s="3" t="b">
         <v>1</v>
@@ -1981,22 +2000,22 @@
     </row>
     <row r="49" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
-        <v>10079</v>
+        <v>10075</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G49" s="3" t="b">
         <v>1</v>
@@ -2008,24 +2027,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="66.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
-        <v>10080</v>
+        <v>10076</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G50" s="3" t="b">
         <v>1</v>
@@ -2039,7 +2058,7 @@
     </row>
     <row r="51" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
-        <v>10081</v>
+        <v>10077</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>29</v>
@@ -2051,10 +2070,10 @@
         <v>11</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G51" s="3" t="b">
         <v>1</v>
@@ -2068,7 +2087,7 @@
     </row>
     <row r="52" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
-        <v>10082</v>
+        <v>10078</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>29</v>
@@ -2080,10 +2099,10 @@
         <v>11</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G52" s="3" t="b">
         <v>1</v>
@@ -2097,7 +2116,7 @@
     </row>
     <row r="53" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
-        <v>10083</v>
+        <v>10079</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>29</v>
@@ -2109,10 +2128,10 @@
         <v>11</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G53" s="3" t="b">
         <v>1</v>
@@ -2126,22 +2145,22 @@
     </row>
     <row r="54" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
-        <v>10084</v>
+        <v>10080</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G54" s="3" t="b">
         <v>1</v>
@@ -2153,24 +2172,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="66.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
-        <v>10085</v>
+        <v>10081</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G55" s="3" t="b">
         <v>1</v>
@@ -2184,22 +2203,22 @@
     </row>
     <row r="56" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
-        <v>10086</v>
+        <v>10082</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G56" s="3" t="b">
         <v>1</v>
@@ -2213,22 +2232,22 @@
     </row>
     <row r="57" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
-        <v>10087</v>
+        <v>10083</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G57" s="3" t="b">
         <v>1</v>
@@ -2240,24 +2259,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="66.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
-        <v>10088</v>
+        <v>10084</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G58" s="3" t="b">
         <v>1</v>
@@ -2269,24 +2288,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="66.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
-        <v>10089</v>
+        <v>10085</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G59" s="3" t="b">
         <v>1</v>
@@ -2300,22 +2319,22 @@
     </row>
     <row r="60" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
-        <v>10090</v>
+        <v>10086</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G60" s="3" t="b">
         <v>1</v>
@@ -2327,24 +2346,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="66.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
-        <v>10091</v>
+        <v>10087</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G61" s="3" t="b">
         <v>1</v>
@@ -2356,24 +2375,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="66.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
-        <v>10092</v>
+        <v>10088</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G62" s="3" t="b">
         <v>1</v>
@@ -2387,35 +2406,151 @@
     </row>
     <row r="63" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
+        <v>10089</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="G63" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I63" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
+        <v>10090</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="G64" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I64" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
+        <v>10091</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="G65" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I65" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
+        <v>10092</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="G66" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="55.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
         <v>10093</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B67" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C67" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="D63" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F63" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="G63" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I63" s="0" t="s">
+      <c r="D67" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="G67" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I67" s="0" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I63"/>
+  <autoFilter ref="A1:I67"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
